--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B438B30F-F035-4559-97CE-11CBC4528AB7}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{076F57DC-EF61-4F96-827A-B65D51B21D4F}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="4950" windowWidth="17370" windowHeight="14265" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="4815" yWindow="5835" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Symptom</t>
   </si>
@@ -115,50 +115,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -221,11 +222,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -233,31 +260,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -574,24 +598,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -600,196 +624,92 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="14">
         <v>0.47475270000000003</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="14">
         <v>-1.0465608</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D5" s="12">
         <f>(D2-D3)*$B$4+$B$5</f>
         <v>-1.0465608</v>
       </c>
-      <c r="E6" s="4">
-        <f>(E2-E3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="F6" s="4">
-        <f>(F2-F3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="G6" s="4">
-        <f>(G2-G3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="H6" s="4">
-        <f>(H2-H3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(I2-I3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(J2-J3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-      <c r="K6" s="13">
-        <f>(K2-K3)*$B$4+$B$5</f>
-        <v>-1.0465608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6" si="0">$B$7*EXP(D5)/(1+$B$7*EXP(D5))</f>
+        <v>2.9629489514566315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
-        <f>B9/(1-B9)</f>
+      <c r="B7" s="12">
+        <f>B8/(1-B8)</f>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <f>$B$7*EXP(D6)/(1+$B$7*EXP(D6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <f>$B$7*EXP(E6)/(1+$B$7*EXP(E6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <f>$B$7*EXP(F6)/(1+$B$7*EXP(F6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <f>$B$7*EXP(G6)/(1+$B$7*EXP(G6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="H7" s="4">
-        <f>$B$7*EXP(H6)/(1+$B$7*EXP(H6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <f>$B$7*EXP(I6)/(1+$B$7*EXP(I6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <f>$B$7*EXP(J6)/(1+$B$7*EXP(J6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-      <c r="K7" s="13">
-        <f>$B$7*EXP(K6)/(1+$B$7*EXP(K6))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B8" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{076F57DC-EF61-4F96-827A-B65D51B21D4F}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB0D8267-753C-4F2D-B35D-1F96CD757252}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="5835" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="2880" yWindow="4425" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Symptom</t>
   </si>
@@ -72,13 +72,16 @@
   </si>
   <si>
     <t>Rate of positive tests</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,20 +106,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -260,30 +249,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,21 +583,22 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -638,78 +621,84 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>0.47475270000000003</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14">
-        <v>-1.0465608</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D4" s="9">
         <f>(D2-D3)*$B$4+$B$5</f>
         <v>-1.0465608</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="3" t="s">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>-1.0465608</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5" si="0">$B$7*EXP(D4)/(1+$B$7*EXP(D4))</f>
+        <v>2.9629489514566315E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">$B$7*EXP(D5)/(1+$B$7*EXP(D5))</f>
-        <v>2.9629489514566315E-2</v>
+      <c r="D6" s="13" t="str">
+        <f>IF(D5&lt;0.5, "Can not be determined", D5)</f>
+        <v>Can not be determined</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <f>B8/(1-B8)</f>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB0D8267-753C-4F2D-B35D-1F96CD757252}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{099F3E18-52A5-4B38-8E7D-6497E9CB263D}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="4425" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="17880" yWindow="9135" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,15 +53,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Smell_before</t>
-  </si>
-  <si>
-    <t>Smell_during</t>
-  </si>
-  <si>
-    <t>scale 1-10</t>
-  </si>
-  <si>
     <t>Answers</t>
   </si>
   <si>
@@ -75,6 +66,15 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Smell before illness</t>
+  </si>
+  <si>
+    <t>Smell during illness</t>
+  </si>
+  <si>
+    <t>Scale 1-10 (1- no sense of smell, 10 - excellent sence of smell)</t>
   </si>
 </sst>
 </file>
@@ -583,14 +583,14 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -605,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -619,21 +619,21 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -660,7 +660,7 @@
         <v>-1.0465608</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" ref="D5" si="0">$B$7*EXP(D4)/(1+$B$7*EXP(D4))</f>
@@ -671,16 +671,16 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>IF(D5&lt;0.5, "Can not be determined", D5)</f>
+        <f>IF(D5&lt;0.5,"Can not be determined",_xlfn.CONCAT(ROUND(D5*100,0), "%"))</f>
         <v>Can not be determined</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9">
         <f>B8/(1-B8)</f>
@@ -689,7 +689,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>0.08</v>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{099F3E18-52A5-4B38-8E7D-6497E9CB263D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5E73C02-A355-44C5-ABF2-251DEEB9D6E0}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="9135" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,8 +674,8 @@
         <v>7</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>IF(D5&lt;0.5,"Can not be determined",_xlfn.CONCAT(ROUND(D5*100,0), "%"))</f>
-        <v>Can not be determined</v>
+        <f>IF(D5&lt;0.5,"Cannot be determined",_xlfn.CONCAT(ROUND(D5*100,0), "%"))</f>
+        <v>Cannot be determined</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5E73C02-A355-44C5-ABF2-251DEEB9D6E0}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09A96359-F85A-476E-BCF7-81D674683055}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="7275" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="20970" yWindow="10935" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Symptom</t>
   </si>
@@ -62,9 +62,6 @@
     <t>pi_mult</t>
   </si>
   <si>
-    <t>Rate of positive tests</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
@@ -75,13 +72,25 @@
   </si>
   <si>
     <t>Scale 1-10 (1- no sense of smell, 10 - excellent sence of smell)</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
+  </si>
+  <si>
+    <t>Calculator 3 - Smell (quantitative)</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
+  </si>
+  <si>
+    <t>Rate of positive tests - change to current rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +161,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,6 +206,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -191,43 +265,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -241,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -251,12 +304,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -265,7 +314,21 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,113 +657,136 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B8" s="9">
         <v>0.47475270000000003</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
-        <f>(D2-D3)*$B$4+$B$5</f>
+      <c r="D8" s="7">
+        <f>(D6-D7)*$B$8+$B$9</f>
         <v>-1.0465608</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B9" s="9">
         <v>-1.0465608</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5" si="0">$B$7*EXP(D4)/(1+$B$7*EXP(D4))</f>
-        <v>2.9629489514566315E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <f>$A$13*EXP(D8)/(1+$A$13*EXP(D8))</f>
+        <v>2.7323897804881557E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="str">
-        <f>IF(D5&lt;0.5,"Cannot be determined",_xlfn.CONCAT(ROUND(D5*100,0), "%"))</f>
-        <v>Cannot be determined</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="D10" s="11" t="str">
+        <f>_xlfn.CONCAT(ROUND(D9*100,0), "%")</f>
+        <v>3%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
-        <f>B8/(1-B8)</f>
+      <c r="B11" s="7">
+        <f>A13/(1-A13)</f>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09A96359-F85A-476E-BCF7-81D674683055}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94405019-A41A-48AB-B05B-EFC190CDB432}"/>
   <bookViews>
-    <workbookView xWindow="20970" yWindow="10935" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="9150" yWindow="10875" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>Calculator 3 - Smell (quantitative)</t>
   </si>
   <si>
-    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means you are very likely to have COVID-19.</t>
-  </si>
-  <si>
     <t>Rate of positive tests - change to current rate</t>
+  </si>
+  <si>
+    <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
   </si>
 </sst>
 </file>
@@ -317,17 +317,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,7 +646,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -752,8 +752,8 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f>_xlfn.CONCAT(ROUND(D9*100,0), "%")</f>
-        <v>3%</v>
+        <f>IF(AND(ISBLANK(D6), ISBLANK(D7)),"",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,16 +766,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="17"/>
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="16">
         <v>0.08</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94405019-A41A-48AB-B05B-EFC190CDB432}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BDF153C-F88D-4499-BCD3-1F9FD343DDD5}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="10875" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="9915" yWindow="7605" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="str">
-        <f>IF(AND(ISBLANK(D6), ISBLANK(D7)),"",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
+        <f>IF(OR(ISBLANK(D6), ISBLANK(D7)),"",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
         <v/>
       </c>
     </row>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BDF153C-F88D-4499-BCD3-1F9FD343DDD5}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71F4910C-E0C2-4B99-8458-EC7B2EF2F319}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="7605" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="10440" yWindow="300" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71F4910C-E0C2-4B99-8458-EC7B2EF2F319}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B40DAF9-FA0B-493F-AAC7-E0A07E3E51B3}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="300" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="9600" yWindow="615" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B40DAF9-FA0B-493F-AAC7-E0A07E3E51B3}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C71C6232-0E74-4269-9B9A-87C74D829664}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="615" windowWidth="17775" windowHeight="9675" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE1F47B-5DA8-43DE-85B3-7C5E3227414A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,22 +657,22 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -705,7 +705,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -715,7 +715,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -729,8 +729,88 @@
         <f>(D6-D7)*$B$8+$B$9</f>
         <v>-1.0465608</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="7">
+        <f t="shared" ref="E8:X8" si="0">(E6-E7)*$B$8+$B$9</f>
+        <v>-1.0465608</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.0465608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -741,11 +821,91 @@
         <v>9</v>
       </c>
       <c r="D9" s="7">
-        <f>$A$13*EXP(D8)/(1+$A$13*EXP(D8))</f>
-        <v>2.7323897804881557E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>$B$11*EXP(D8)/(1+$B$11*EXP(D8))</f>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="E9:X9" si="1">$B$11*EXP(E8)/(1+$B$11*EXP(E8))</f>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9629489514566315E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
@@ -755,8 +915,88 @@
         <f>IF(OR(ISBLANK(D6), ISBLANK(D7)),"",_xlfn.CONCAT(ROUND(D9*100,0), "%"))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:X10" si="2">IF(OR(ISBLANK(E6), ISBLANK(E7)),"",_xlfn.CONCAT(ROUND(E9*100,0), "%"))</f>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -765,19 +1005,19 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>0.08</v>
       </c>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>

--- a/calculator_smell.xlsx
+++ b/calculator_smell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0432b435e41476/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C71C6232-0E74-4269-9B9A-87C74D829664}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{42154242-FB12-44CF-B646-F248C5C092A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3884F003-9EF7-4F83-B07B-8B22E47BDD6F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
+    <workbookView xWindow="11955" yWindow="4725" windowWidth="17685" windowHeight="11655" xr2:uid="{7FE50982-8779-43B4-A497-3467143D7066}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Scale 1-10 (1- no sense of smell, 10 - excellent sence of smell)</t>
   </si>
   <si>
-    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (link to medrxiv)</t>
-  </si>
-  <si>
     <t>Calculator 3 - Smell (quantitative)</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Low probability does NOT mean that the patient does not have COVID-19! High probability means high probability for COVID-19.</t>
+  </si>
+  <si>
+    <t>Calculators for probability to be positive to COVID-19 based on specific symptoms, according to Karni, Klein et al (https://www.medrxiv.org/content/10.1101/2020.07.30.20164327v1)</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,17 +659,17 @@
   <sheetData>
     <row r="1" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="15"/>
     </row>
